--- a/docs/数据结构/Basic数据结构-权限管理.xlsx
+++ b/docs/数据结构/Basic数据结构-权限管理.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IdeaWorkSpace\workCodes\basic\docs\数据结构\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-basic\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175801BC-954F-49E7-A79D-DDD5704D1C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31896" yWindow="156" windowWidth="15396" windowHeight="7812" tabRatio="836" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="836" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="50" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="251">
   <si>
     <t>描述</t>
   </si>
@@ -1002,13 +1003,37 @@
   </si>
   <si>
     <t>user_id,data_role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectiveFrom</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective_from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效起始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectiveTo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective_to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效截止日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1231,8 +1256,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="3"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -1260,7 +1285,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1277,7 +1302,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1352,6 +1377,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1387,6 +1429,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1562,21 +1621,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1587,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="5" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1598,7 +1657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>39</v>
       </c>
@@ -1609,7 +1668,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="9" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>69</v>
       </c>
@@ -1620,7 +1679,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>80</v>
       </c>
@@ -1631,7 +1690,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="11" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>87</v>
       </c>
@@ -1642,7 +1701,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>96</v>
       </c>
@@ -1653,7 +1712,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>107</v>
       </c>
@@ -1664,7 +1723,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>119</v>
       </c>
@@ -1675,7 +1734,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>132</v>
       </c>
@@ -1686,7 +1745,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="11" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>135</v>
       </c>
@@ -1697,7 +1756,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" s="11" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>142</v>
       </c>
@@ -1708,7 +1767,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" s="11" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>155</v>
       </c>
@@ -1719,7 +1778,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>156</v>
       </c>
@@ -1733,19 +1792,19 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" location="功能角色组!A1" display="feature_role_group"/>
-    <hyperlink ref="B3" location="功能角色!A1" display="feature_role"/>
-    <hyperlink ref="B4" location="功能角色分配的功能项!A1" display="feature_role_feature"/>
-    <hyperlink ref="B5" location="岗位分配功能角色!A1" display="position_feature_role"/>
-    <hyperlink ref="B6" location="用户分配功能角色!A1" display="user_feature_role"/>
-    <hyperlink ref="B7" location="租户分配应用模块!A1" display="tenant_app_module"/>
-    <hyperlink ref="B8" location="权限对象类型!A1" display="authorize_entity_type"/>
-    <hyperlink ref="B9" location="数据权限类型!A1" display="data_authorize_type"/>
-    <hyperlink ref="B10" location="功能角色组!A1" display="feature_role_group"/>
-    <hyperlink ref="B11" location="数据角色!A1" display="data_role"/>
-    <hyperlink ref="B12" location="数据角色分配权限类型的值!A1" display="data_role_auth_type_value"/>
-    <hyperlink ref="B13" location="岗位分配数据角色!A1" display="position_data_role"/>
-    <hyperlink ref="B14" location="用户分配数据角色!A1" display="user_data_role"/>
+    <hyperlink ref="B2" location="功能角色组!A1" display="feature_role_group" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" location="功能角色!A1" display="feature_role" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" location="功能角色分配的功能项!A1" display="feature_role_feature" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" location="岗位分配功能角色!A1" display="position_feature_role" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" location="用户分配功能角色!A1" display="user_feature_role" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" location="租户分配应用模块!A1" display="tenant_app_module" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" location="权限对象类型!A1" display="authorize_entity_type" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" location="数据权限类型!A1" display="data_authorize_type" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" location="功能角色组!A1" display="feature_role_group" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" location="数据角色!A1" display="data_role" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" location="数据角色分配权限类型的值!A1" display="data_role_auth_type_value" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" location="岗位分配数据角色!A1" display="position_data_role" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" location="用户分配数据角色!A1" display="user_data_role" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1753,28 +1812,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="11"/>
-    <col min="7" max="7" width="14.88671875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="11" customWidth="1"/>
     <col min="8" max="8" width="9" style="11"/>
-    <col min="9" max="9" width="28.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>132</v>
       </c>
@@ -1786,7 +1845,7 @@
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1815,7 +1874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
@@ -1838,7 +1897,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
@@ -1863,7 +1922,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
@@ -1890,7 +1949,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
@@ -1911,7 +1970,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>198</v>
       </c>
@@ -1930,7 +1989,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>202</v>
       </c>
@@ -1949,7 +2008,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>206</v>
       </c>
@@ -1968,7 +2027,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>210</v>
       </c>
@@ -1987,7 +2046,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>214</v>
       </c>
@@ -2006,7 +2065,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>218</v>
       </c>
@@ -2025,7 +2084,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>221</v>
       </c>
@@ -2044,7 +2103,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>224</v>
       </c>
@@ -2071,28 +2130,28 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.21875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="20.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="11" customWidth="1"/>
     <col min="3" max="3" width="27" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="11"/>
+    <col min="4" max="4" width="16.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="11"/>
     <col min="7" max="7" width="21" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="11"/>
-    <col min="9" max="9" width="28.44140625" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="11"/>
+    <col min="8" max="8" width="8.875" style="11"/>
+    <col min="9" max="9" width="28.5" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>188</v>
       </c>
@@ -2104,7 +2163,7 @@
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -2133,7 +2192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
@@ -2156,7 +2215,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
@@ -2181,7 +2240,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
@@ -2208,7 +2267,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
@@ -2229,7 +2288,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>138</v>
       </c>
@@ -2256,7 +2315,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>56</v>
       </c>
@@ -2277,7 +2336,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>60</v>
       </c>
@@ -2302,7 +2361,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>198</v>
       </c>
@@ -2321,7 +2380,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>202</v>
       </c>
@@ -2340,7 +2399,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>206</v>
       </c>
@@ -2359,7 +2418,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>210</v>
       </c>
@@ -2378,7 +2437,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>214</v>
       </c>
@@ -2397,7 +2456,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>218</v>
       </c>
@@ -2416,7 +2475,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>221</v>
       </c>
@@ -2435,7 +2494,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>224</v>
       </c>
@@ -2462,28 +2521,28 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.125" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="11"/>
-    <col min="7" max="7" width="18.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="11"/>
-    <col min="9" max="9" width="28.44140625" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="11"/>
+    <col min="4" max="4" width="16.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="44.375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="11"/>
+    <col min="7" max="7" width="18.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="11"/>
+    <col min="9" max="9" width="28.5" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>142</v>
       </c>
@@ -2495,7 +2554,7 @@
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -2524,7 +2583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
@@ -2547,7 +2606,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>189</v>
       </c>
@@ -2574,7 +2633,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>149</v>
       </c>
@@ -2599,7 +2658,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>153</v>
       </c>
@@ -2620,7 +2679,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>198</v>
       </c>
@@ -2639,7 +2698,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>202</v>
       </c>
@@ -2658,7 +2717,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>206</v>
       </c>
@@ -2677,7 +2736,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>210</v>
       </c>
@@ -2696,7 +2755,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>214</v>
       </c>
@@ -2715,7 +2774,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>218</v>
       </c>
@@ -2734,7 +2793,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>221</v>
       </c>
@@ -2753,7 +2812,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>224</v>
       </c>
@@ -2780,28 +2839,28 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A6" sqref="A6:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="11"/>
-    <col min="7" max="7" width="15.109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="11"/>
-    <col min="9" max="9" width="28.44140625" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="11"/>
+    <col min="4" max="4" width="16.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="44.375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="11"/>
+    <col min="7" max="7" width="15.125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="11"/>
+    <col min="9" max="9" width="28.5" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>187</v>
       </c>
@@ -2813,7 +2872,7 @@
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -2842,7 +2901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
@@ -2865,7 +2924,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>82</v>
       </c>
@@ -2892,7 +2951,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>161</v>
       </c>
@@ -2917,18 +2976,18 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -2936,18 +2995,18 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -2955,18 +3014,18 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -2974,18 +3033,18 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -2993,18 +3052,18 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -3012,18 +3071,18 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -3031,18 +3090,18 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -3050,24 +3109,62 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -3077,28 +3174,28 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="11" customWidth="1"/>
     <col min="3" max="3" width="27" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="11"/>
-    <col min="7" max="7" width="15.109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="11"/>
-    <col min="9" max="9" width="28.44140625" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="11"/>
+    <col min="4" max="4" width="16.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="44.375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="11"/>
+    <col min="7" max="7" width="15.125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="11"/>
+    <col min="9" max="9" width="28.5" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>156</v>
       </c>
@@ -3110,7 +3207,7 @@
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -3139,7 +3236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
@@ -3162,7 +3259,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>91</v>
       </c>
@@ -3189,7 +3286,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>162</v>
       </c>
@@ -3214,18 +3311,18 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -3233,18 +3330,18 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -3252,18 +3349,18 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -3271,18 +3368,18 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -3290,18 +3387,18 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -3309,18 +3406,18 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -3328,18 +3425,18 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -3347,24 +3444,62 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -3374,24 +3509,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
@@ -3408,7 +3543,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -3437,7 +3572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
@@ -3460,7 +3595,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="11" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
@@ -3483,7 +3618,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="11" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
@@ -3510,7 +3645,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="11" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
@@ -3529,7 +3664,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>198</v>
       </c>
@@ -3548,7 +3683,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>202</v>
       </c>
@@ -3567,7 +3702,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>206</v>
       </c>
@@ -3586,7 +3721,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>210</v>
       </c>
@@ -3605,7 +3740,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>214</v>
       </c>
@@ -3624,7 +3759,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>218</v>
       </c>
@@ -3643,7 +3778,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>221</v>
       </c>
@@ -3662,7 +3797,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>224</v>
       </c>
@@ -3689,28 +3824,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.21875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="20.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="11" customWidth="1"/>
     <col min="3" max="3" width="27" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="11" customWidth="1"/>
     <col min="5" max="5" width="21" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="11"/>
+    <col min="6" max="6" width="8.875" style="11"/>
     <col min="7" max="7" width="21" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="11"/>
-    <col min="9" max="9" width="28.44140625" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="11"/>
+    <col min="8" max="8" width="8.875" style="11"/>
+    <col min="9" max="9" width="28.5" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>42</v>
       </c>
@@ -3722,7 +3857,7 @@
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -3751,7 +3886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
@@ -3774,7 +3909,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>23</v>
       </c>
@@ -3797,7 +3932,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
@@ -3824,7 +3959,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
@@ -3845,7 +3980,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>44</v>
       </c>
@@ -3872,7 +4007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
@@ -3895,7 +4030,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>56</v>
       </c>
@@ -3916,7 +4051,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>60</v>
       </c>
@@ -3941,7 +4076,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>198</v>
       </c>
@@ -3960,7 +4095,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>202</v>
       </c>
@@ -3979,7 +4114,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>206</v>
       </c>
@@ -3998,7 +4133,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>210</v>
       </c>
@@ -4017,7 +4152,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>214</v>
       </c>
@@ -4036,7 +4171,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>218</v>
       </c>
@@ -4055,7 +4190,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>221</v>
       </c>
@@ -4074,7 +4209,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>224</v>
       </c>
@@ -4101,28 +4236,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.125" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="11"/>
-    <col min="7" max="7" width="15.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="11"/>
-    <col min="9" max="9" width="28.44140625" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="11"/>
+    <col min="4" max="4" width="16.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="44.375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="11"/>
+    <col min="7" max="7" width="15.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="11"/>
+    <col min="9" max="9" width="28.5" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>65</v>
       </c>
@@ -4134,7 +4269,7 @@
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -4163,7 +4298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
@@ -4186,7 +4321,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>73</v>
       </c>
@@ -4213,7 +4348,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>74</v>
       </c>
@@ -4238,7 +4373,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>198</v>
       </c>
@@ -4257,7 +4392,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>202</v>
       </c>
@@ -4276,7 +4411,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>206</v>
       </c>
@@ -4295,7 +4430,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>210</v>
       </c>
@@ -4314,7 +4449,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>214</v>
       </c>
@@ -4333,7 +4468,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>218</v>
       </c>
@@ -4352,7 +4487,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>221</v>
       </c>
@@ -4371,7 +4506,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>224</v>
       </c>
@@ -4398,28 +4533,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="11"/>
-    <col min="7" max="7" width="15.109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="11"/>
-    <col min="9" max="9" width="28.44140625" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="11"/>
+    <col min="4" max="4" width="16.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="44.375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="11"/>
+    <col min="7" max="7" width="15.125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="11"/>
+    <col min="9" max="9" width="28.5" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>80</v>
       </c>
@@ -4431,7 +4566,7 @@
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -4460,7 +4595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
@@ -4483,7 +4618,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>82</v>
       </c>
@@ -4510,7 +4645,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>70</v>
       </c>
@@ -4535,18 +4670,18 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -4554,18 +4689,18 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -4573,18 +4708,18 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -4592,18 +4727,18 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -4611,18 +4746,18 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -4630,18 +4765,18 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -4649,18 +4784,18 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -4668,24 +4803,62 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -4695,28 +4868,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A6" sqref="A6:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="11" customWidth="1"/>
     <col min="3" max="3" width="27" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="11"/>
-    <col min="7" max="7" width="15.109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="11"/>
-    <col min="9" max="9" width="28.44140625" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="11"/>
+    <col min="4" max="4" width="16.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="44.375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="11"/>
+    <col min="7" max="7" width="15.125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="11"/>
+    <col min="9" max="9" width="28.5" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>87</v>
       </c>
@@ -4728,7 +4901,7 @@
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -4757,7 +4930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
@@ -4780,7 +4953,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>91</v>
       </c>
@@ -4807,7 +4980,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>70</v>
       </c>
@@ -4832,18 +5005,18 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -4851,18 +5024,18 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -4870,18 +5043,18 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -4889,18 +5062,18 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -4908,18 +5081,18 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -4927,18 +5100,18 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -4946,18 +5119,18 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -4965,18 +5138,18 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -4984,36 +5157,74 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.375" style="11" customWidth="1"/>
     <col min="3" max="3" width="27" style="11" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="11"/>
-    <col min="7" max="7" width="15.109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="11"/>
-    <col min="9" max="9" width="28.44140625" style="11" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="11"/>
+    <col min="4" max="4" width="16.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="44.375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="11"/>
+    <col min="7" max="7" width="15.125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="11"/>
+    <col min="9" max="9" width="28.5" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>96</v>
       </c>
@@ -5025,7 +5236,7 @@
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -5054,7 +5265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
@@ -5077,7 +5288,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>98</v>
       </c>
@@ -5104,7 +5315,7 @@
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>100</v>
       </c>
@@ -5129,7 +5340,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>198</v>
       </c>
@@ -5148,7 +5359,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>202</v>
       </c>
@@ -5167,7 +5378,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>206</v>
       </c>
@@ -5186,7 +5397,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>210</v>
       </c>
@@ -5205,7 +5416,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>214</v>
       </c>
@@ -5224,7 +5435,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>218</v>
       </c>
@@ -5243,7 +5454,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>221</v>
       </c>
@@ -5262,7 +5473,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>224</v>
       </c>
@@ -5289,27 +5500,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.375" style="11" customWidth="1"/>
     <col min="6" max="6" width="9" style="11"/>
-    <col min="7" max="7" width="23.33203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="23.375" style="11" customWidth="1"/>
     <col min="8" max="8" width="9" style="11"/>
-    <col min="9" max="9" width="28.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>186</v>
       </c>
@@ -5321,7 +5532,7 @@
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -5350,7 +5561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>163</v>
       </c>
@@ -5373,7 +5584,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>110</v>
       </c>
@@ -5400,7 +5611,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>35</v>
       </c>
@@ -5421,7 +5632,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>166</v>
       </c>
@@ -5446,7 +5657,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>116</v>
       </c>
@@ -5469,7 +5680,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>192</v>
       </c>
@@ -5492,7 +5703,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>198</v>
       </c>
@@ -5511,7 +5722,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>202</v>
       </c>
@@ -5530,7 +5741,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>206</v>
       </c>
@@ -5549,7 +5760,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>210</v>
       </c>
@@ -5568,7 +5779,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>214</v>
       </c>
@@ -5587,7 +5798,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>218</v>
       </c>
@@ -5606,7 +5817,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>221</v>
       </c>
@@ -5625,7 +5836,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>224</v>
       </c>
@@ -5652,28 +5863,28 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.44140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5" style="11" customWidth="1"/>
     <col min="6" max="6" width="9" style="11"/>
-    <col min="7" max="7" width="20.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="11"/>
-    <col min="9" max="9" width="28.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>119</v>
       </c>
@@ -5685,7 +5896,7 @@
       </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -5714,7 +5925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>16</v>
       </c>
@@ -5737,7 +5948,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>28</v>
       </c>
@@ -5764,7 +5975,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>35</v>
       </c>
@@ -5785,7 +5996,7 @@
       </c>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>148</v>
       </c>
@@ -5812,7 +6023,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>129</v>
       </c>
@@ -5837,7 +6048,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>198</v>
       </c>
@@ -5856,7 +6067,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>202</v>
       </c>
@@ -5875,7 +6086,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>206</v>
       </c>
@@ -5894,7 +6105,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>210</v>
       </c>
@@ -5913,7 +6124,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>214</v>
       </c>
@@ -5932,7 +6143,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>218</v>
       </c>
@@ -5951,7 +6162,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>221</v>
       </c>
@@ -5970,7 +6181,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>224</v>
       </c>

--- a/docs/数据结构/Basic数据结构-权限管理.xlsx
+++ b/docs/数据结构/Basic数据结构-权限管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPrograms\java\sei\sei-basic\docs\数据结构\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175801BC-954F-49E7-A79D-DDD5704D1C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFA1A7C-FD47-40D9-80C8-2EA733782F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="836" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="836" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="50" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="251">
   <si>
     <t>描述</t>
   </si>
@@ -546,18 +546,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>featureId</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>feature.id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>为空表示General</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>DataRoleGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -714,10 +702,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>功能项Id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>角色组Id</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -794,10 +778,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>feature_id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>beTree</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -950,9 +930,6 @@
   </si>
   <si>
     <t>feature_id</t>
-  </si>
-  <si>
-    <t>feature_id</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1028,6 +1005,30 @@
   <si>
     <t>有效截止日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>featureCode</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_code</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能码</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature_code</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>为空表示General，限定数据权限的使用范围</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1736,57 +1737,57 @@
     </row>
     <row r="10" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="11" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="11" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="11" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>159</v>
-      </c>
       <c r="C14" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1835,13 +1836,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D1" s="8"/>
     </row>
@@ -1911,11 +1912,11 @@
         <v>26</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>27</v>
@@ -1972,16 +1973,16 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -1991,16 +1992,16 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -2010,16 +2011,16 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -2029,16 +2030,16 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -2048,16 +2049,16 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -2067,16 +2068,16 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -2086,16 +2087,16 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -2105,13 +2106,13 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>19</v>
@@ -2153,13 +2154,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D1" s="8"/>
     </row>
@@ -2229,11 +2230,11 @@
         <v>26</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>27</v>
@@ -2290,29 +2291,29 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>47</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2354,7 +2355,7 @@
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
@@ -2363,16 +2364,16 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -2382,16 +2383,16 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -2401,16 +2402,16 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -2420,16 +2421,16 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -2439,16 +2440,16 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -2458,16 +2459,16 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -2477,16 +2478,16 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -2496,13 +2497,13 @@
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>19</v>
@@ -2544,13 +2545,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D1" s="8"/>
     </row>
@@ -2608,25 +2609,25 @@
     </row>
     <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>31</v>
@@ -2635,23 +2636,23 @@
     </row>
     <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>47</v>
@@ -2660,13 +2661,13 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>18</v>
@@ -2681,16 +2682,16 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -2700,16 +2701,16 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -2719,16 +2720,16 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -2738,16 +2739,16 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -2757,16 +2758,16 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -2776,16 +2777,16 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -2795,16 +2796,16 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -2814,13 +2815,13 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>19</v>
@@ -2862,13 +2863,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D1" s="8"/>
     </row>
@@ -2906,13 +2907,13 @@
         <v>16</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13" t="s">
@@ -2929,16 +2930,16 @@
         <v>82</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>83</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>34</v>
@@ -2953,23 +2954,23 @@
     </row>
     <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>47</v>
@@ -2978,13 +2979,13 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>19</v>
@@ -2997,13 +2998,13 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>19</v>
@@ -3016,16 +3017,16 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -3035,16 +3036,16 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -3054,16 +3055,16 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -3073,16 +3074,16 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -3092,16 +3093,16 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -3111,16 +3112,16 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -3130,16 +3131,16 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -3149,13 +3150,13 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>19</v>
@@ -3197,13 +3198,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D1" s="8"/>
     </row>
@@ -3273,7 +3274,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>34</v>
@@ -3288,23 +3289,23 @@
     </row>
     <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>47</v>
@@ -3313,13 +3314,13 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>19</v>
@@ -3332,13 +3333,13 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>19</v>
@@ -3351,16 +3352,16 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -3370,16 +3371,16 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -3389,16 +3390,16 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -3408,16 +3409,16 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -3427,16 +3428,16 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -3446,16 +3447,16 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -3465,16 +3466,16 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -3484,13 +3485,13 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>19</v>
@@ -3666,16 +3667,16 @@
     </row>
     <row r="7" spans="1:9" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -3685,16 +3686,16 @@
     </row>
     <row r="8" spans="1:9" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -3704,16 +3705,16 @@
     </row>
     <row r="9" spans="1:9" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -3723,16 +3724,16 @@
     </row>
     <row r="10" spans="1:9" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -3742,16 +3743,16 @@
     </row>
     <row r="11" spans="1:9" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -3761,16 +3762,16 @@
     </row>
     <row r="12" spans="1:9" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -3780,16 +3781,16 @@
     </row>
     <row r="13" spans="1:9" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -3799,13 +3800,13 @@
     </row>
     <row r="14" spans="1:9" s="15" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>19</v>
@@ -4056,7 +4057,7 @@
         <v>60</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>62</v>
@@ -4065,7 +4066,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
@@ -4078,16 +4079,16 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -4097,16 +4098,16 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -4116,16 +4117,16 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -4135,16 +4136,16 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -4154,16 +4155,16 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -4173,16 +4174,16 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -4192,16 +4193,16 @@
     </row>
     <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -4211,13 +4212,13 @@
     </row>
     <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>19</v>
@@ -4335,7 +4336,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>34</v>
@@ -4362,7 +4363,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
@@ -4375,16 +4376,16 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -4394,16 +4395,16 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -4413,16 +4414,16 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -4432,16 +4433,16 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -4451,16 +4452,16 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -4470,16 +4471,16 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -4489,16 +4490,16 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -4508,13 +4509,13 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>19</v>
@@ -4536,7 +4537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -4632,7 +4633,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>34</v>
@@ -4659,7 +4660,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
@@ -4672,13 +4673,13 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>19</v>
@@ -4691,13 +4692,13 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>19</v>
@@ -4710,16 +4711,16 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -4729,16 +4730,16 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -4748,16 +4749,16 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -4767,16 +4768,16 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -4786,16 +4787,16 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -4805,16 +4806,16 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -4824,16 +4825,16 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -4843,13 +4844,13 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>19</v>
@@ -4967,7 +4968,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>34</v>
@@ -4994,7 +4995,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
@@ -5007,13 +5008,13 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>19</v>
@@ -5026,13 +5027,13 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>19</v>
@@ -5045,16 +5046,16 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -5064,16 +5065,16 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -5083,16 +5084,16 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -5102,13 +5103,13 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>19</v>
@@ -5121,16 +5122,16 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -5140,16 +5141,16 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -5159,16 +5160,16 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -5178,13 +5179,13 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>19</v>
@@ -5302,7 +5303,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>27</v>
@@ -5329,7 +5330,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="s">
@@ -5342,16 +5343,16 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -5361,16 +5362,16 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -5380,16 +5381,16 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -5399,16 +5400,16 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -5418,16 +5419,16 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -5437,16 +5438,16 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -5456,16 +5457,16 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -5475,13 +5476,13 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>19</v>
@@ -5522,7 +5523,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>109</v>
@@ -5563,7 +5564,7 @@
     </row>
     <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>17</v>
@@ -5616,10 +5617,10 @@
         <v>35</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>30</v>
@@ -5634,10 +5635,10 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>114</v>
@@ -5646,7 +5647,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="s">
@@ -5662,10 +5663,10 @@
         <v>116</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>117</v>
@@ -5682,39 +5683,39 @@
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>197</v>
-      </c>
       <c r="C8" s="14" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -5724,16 +5725,16 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -5743,16 +5744,16 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -5762,16 +5763,16 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -5781,16 +5782,16 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -5800,16 +5801,16 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -5819,16 +5820,16 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -5838,13 +5839,13 @@
     </row>
     <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>19</v>
@@ -5866,8 +5867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5880,7 +5881,7 @@
     <col min="6" max="6" width="9" style="11"/>
     <col min="7" max="7" width="20.5" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="11"/>
-    <col min="9" max="9" width="28.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
@@ -5953,7 +5954,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>36</v>
@@ -5962,7 +5963,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>34</v>
@@ -5983,7 +5984,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>30</v>
@@ -5998,10 +5999,10 @@
     </row>
     <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>123</v>
@@ -6010,10 +6011,10 @@
         <v>18</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>124</v>
@@ -6025,41 +6026,39 @@
     </row>
     <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
-        <v>130</v>
-      </c>
+      <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>131</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -6069,16 +6068,16 @@
     </row>
     <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -6088,16 +6087,16 @@
     </row>
     <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -6107,16 +6106,16 @@
     </row>
     <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -6126,16 +6125,16 @@
     </row>
     <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -6145,16 +6144,16 @@
     </row>
     <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -6164,16 +6163,16 @@
     </row>
     <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -6183,13 +6182,13 @@
     </row>
     <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>19</v>
